--- a/LibraryList.xlsx
+++ b/LibraryList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\临时文件夹\创新实验班\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PREJECTS\libManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -537,10 +537,6 @@
     <t>刘云浩</t>
   </si>
   <si>
-    <t>许鹏飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曹平涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,10 +811,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘宏志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jquery实战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -884,6 +876,82 @@
   </si>
   <si>
     <t>Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">刘宏志 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒亚飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机程序的构造和解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Julie Syssman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决战Nginx-高性能Web服务器详解与运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶利军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript启示录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cody Lindley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨终端Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向对象的分析与设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵维忠 杨芙清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,8 +1325,8 @@
   </sheetPr>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1306,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1330,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1354,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1378,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
@@ -1393,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H5" s="6">
         <v>41925</v>
@@ -1406,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1430,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1454,7 +1522,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -1478,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -1493,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H9" s="6">
         <v>41929</v>
@@ -1506,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -1530,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
@@ -1554,7 +1622,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -1563,7 +1631,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -1578,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
@@ -1587,13 +1655,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="6">
         <v>41925</v>
@@ -1615,7 +1683,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1630,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -1639,7 +1707,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -1663,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -1702,7 +1770,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
@@ -1726,7 +1794,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>40</v>
@@ -1750,7 +1818,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>43</v>
@@ -1774,7 +1842,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>44</v>
@@ -1798,7 +1866,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>45</v>
@@ -1813,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H22" s="6">
         <v>41933</v>
@@ -1826,7 +1894,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>46</v>
@@ -1850,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
@@ -1874,7 +1942,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
@@ -1898,7 +1966,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>49</v>
@@ -1913,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1926,7 +1994,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>51</v>
@@ -1938,10 +2006,14 @@
         <v>50</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="6">
+        <v>41946</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
@@ -1950,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>52</v>
@@ -1974,7 +2046,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>53</v>
@@ -2034,13 +2106,13 @@
         <v>50</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="6">
-        <v>41940</v>
+        <v>251</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2098,7 +2170,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>63</v>
@@ -2113,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H34" s="6">
         <v>41925</v>
@@ -2126,7 +2198,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>64</v>
@@ -2150,7 +2222,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>65</v>
@@ -2174,7 +2246,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>65</v>
@@ -2198,7 +2270,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>66</v>
@@ -2246,7 +2318,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>69</v>
@@ -2261,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H40" s="6">
         <v>41925</v>
@@ -2274,10 +2346,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>16</v>
@@ -2302,7 +2374,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>72</v>
@@ -2314,13 +2386,13 @@
         <v>70</v>
       </c>
       <c r="F42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>252</v>
+        <v>272</v>
+      </c>
+      <c r="H42" s="6">
+        <v>41946</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -2330,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>73</v>
@@ -2345,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H43" s="6">
         <v>41925</v>
@@ -2358,7 +2430,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>74</v>
@@ -2373,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H44" s="6">
         <v>41923</v>
@@ -2386,7 +2458,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>75</v>
@@ -2410,7 +2482,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>77</v>
@@ -2449,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H47" s="6">
         <v>41926</v>
@@ -2462,7 +2534,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>79</v>
@@ -2477,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H48" s="6">
         <v>41933</v>
@@ -2490,7 +2562,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>81</v>
@@ -2518,7 +2590,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>82</v>
@@ -2533,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -2546,7 +2618,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>83</v>
@@ -2594,7 +2666,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>87</v>
@@ -2690,7 +2762,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>96</v>
@@ -2714,7 +2786,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>97</v>
@@ -2738,7 +2810,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>98</v>
@@ -2798,13 +2870,13 @@
         <v>101</v>
       </c>
       <c r="F61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="6">
-        <v>41923</v>
+        <v>251</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -2814,7 +2886,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>104</v>
@@ -2829,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H62" s="6">
         <v>41923</v>
@@ -2842,7 +2914,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>105</v>
@@ -2866,7 +2938,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>106</v>
@@ -2890,7 +2962,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>107</v>
@@ -2899,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F65" s="2">
         <v>0</v>
@@ -2914,7 +2986,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>108</v>
@@ -2923,7 +2995,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -2953,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -2993,7 +3065,7 @@
         <v>114</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>21</v>
@@ -3113,7 +3185,7 @@
         <v>126</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>127</v>
@@ -3230,7 +3302,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>138</v>
@@ -3305,7 +3377,7 @@
         <v>143</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>95</v>
@@ -3470,7 +3542,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>157</v>
@@ -3641,7 +3713,7 @@
         <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>127</v>
@@ -3686,22 +3758,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H98" s="6">
         <v>41933</v>
@@ -3714,16 +3786,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F99" s="2">
         <v>0</v>
@@ -3738,16 +3810,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F100" s="2">
         <v>0</v>
@@ -3762,16 +3834,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="F101" s="2">
         <v>0</v>
@@ -3786,16 +3858,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F102" s="2">
         <v>0</v>
@@ -3810,16 +3882,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F103" s="2">
         <v>0</v>
@@ -3834,16 +3906,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="F104" s="2">
         <v>0</v>
@@ -3857,11 +3929,21 @@
       <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="B105" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
       <c r="G105" s="8"/>
       <c r="H105" s="6"/>
       <c r="I105" s="3"/>
@@ -3871,11 +3953,21 @@
       <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="3"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
+      <c r="B106" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0</v>
+      </c>
       <c r="G106" s="8"/>
       <c r="H106" s="6"/>
       <c r="I106" s="3"/>
@@ -3885,11 +3977,21 @@
       <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
+      <c r="B107" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
       <c r="G107" s="8"/>
       <c r="H107" s="6"/>
       <c r="I107" s="3"/>
@@ -3899,30 +4001,54 @@
       <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="B108" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0</v>
+      </c>
       <c r="G108" s="8"/>
       <c r="H108" s="6"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="10"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0</v>
+      </c>
       <c r="G109" s="8"/>
       <c r="H109" s="6"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="10"/>
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
       <c r="B110" s="3"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>

--- a/LibraryList.xlsx
+++ b/LibraryList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="311">
   <si>
     <t>ID</t>
   </si>
@@ -129,6 +129,9 @@
     <t>机械工业</t>
   </si>
   <si>
+    <t>王雪莹</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">深入浅出</t>
     </r>
@@ -215,1279 +218,1270 @@
     <t>JAVA</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">常用算法手册</t>
+    </r>
+  </si>
+  <si>
+    <t>徐明远</t>
+  </si>
+  <si>
+    <t>中国铁道</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web3.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Semantic Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">编程</t>
+    </r>
+  </si>
+  <si>
+    <t>John Hebeler</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">整合开发王者归来</t>
+    </r>
+  </si>
+  <si>
+    <t>刘京华</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">编程思想</t>
+    </r>
+  </si>
+  <si>
+    <t>Bruce Eckel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">网络编程</t>
+    </r>
+  </si>
+  <si>
+    <t>Elliotte Rusty</t>
+  </si>
+  <si>
+    <t>中国电力</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTML5WebSocket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">权威指南</t>
+    </r>
+  </si>
+  <si>
+    <t>Vanessa Wang</t>
+  </si>
+  <si>
+    <t>机械工程</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">小技术</t>
+    </r>
+  </si>
+  <si>
+    <t>谢俊杰</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">图解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HTTP</t>
+    </r>
+  </si>
+  <si>
+    <t>上野宣</t>
+  </si>
+  <si>
+    <t>网站性能检测与优化</t>
+  </si>
+  <si>
+    <t>Alistair Croll</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">技术——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">到服务器端</t>
+    </r>
+  </si>
+  <si>
+    <t>小泉修</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>RESTfulWeb APIs</t>
+  </si>
+  <si>
+    <t>Leonard Richardson</t>
+  </si>
+  <si>
+    <t>Thinking in UML</t>
+  </si>
+  <si>
+    <t>谭云杰</t>
+  </si>
+  <si>
+    <t>中国水利水电</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">面向对象建模基础</t>
+    </r>
+  </si>
+  <si>
+    <t>徐峰</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">深入浅出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">编程</t>
+    </r>
+  </si>
+  <si>
+    <t>Eric Freeman</t>
+  </si>
+  <si>
+    <t>东南大学</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JQuery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">技术内幕</t>
+    </r>
+  </si>
+  <si>
+    <t>高云</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">精通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Jquery</t>
+    </r>
+  </si>
+  <si>
+    <t>Adam Freeman</t>
+  </si>
+  <si>
+    <t>章晨昱</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">权威指南</t>
+    </r>
+  </si>
+  <si>
+    <t>David Flanagan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">单页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">应用</t>
+    </r>
+  </si>
+  <si>
+    <t>Michael S.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">扩展及应用开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Chrome</t>
+    </r>
+  </si>
+  <si>
+    <t>李喆</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">JavaScript DOM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">编程艺术</t>
+    </r>
+  </si>
+  <si>
+    <t>Jeremy Keith</t>
+  </si>
+  <si>
+    <t>彭雅丽</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ruby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">基础教程</t>
+    </r>
+  </si>
+  <si>
+    <t>高桥征义</t>
+  </si>
+  <si>
+    <t>小众后端</t>
+  </si>
+  <si>
+    <t>刘昆</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">面向对象设计实践指南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Ruby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">语言描述</t>
+    </r>
+  </si>
+  <si>
+    <t>Sandi Metz</t>
+  </si>
+  <si>
+    <t>舒亚飞</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">语言程序设计</t>
+    </r>
+  </si>
+  <si>
+    <t>Mark Summerfield</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">深入浅出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">nodjs</t>
+    </r>
+  </si>
+  <si>
+    <t>朴灵</t>
+  </si>
+  <si>
+    <t>钟云昶</t>
+  </si>
+  <si>
+    <t>The Ruby Way</t>
+  </si>
+  <si>
+    <t>Hal Fulton</t>
+  </si>
+  <si>
+    <t>Ruby Cookbook</t>
+  </si>
+  <si>
+    <t>Lucas Carlson</t>
+  </si>
+  <si>
+    <t>Programming Ruby</t>
+  </si>
+  <si>
+    <t>Dave Thomas</t>
+  </si>
+  <si>
+    <t>只是为了好玩</t>
+  </si>
+  <si>
+    <t>Linus Torvalds</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">理解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Unix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">进程</t>
+    </r>
+  </si>
+  <si>
+    <t>Jesse Storimer</t>
+  </si>
+  <si>
+    <t>舒亚菲</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">深入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">内核架构</t>
+    </r>
+  </si>
+  <si>
+    <t>Wolfgang Mauerer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">网络编程卷一</t>
+    </r>
+  </si>
+  <si>
+    <t>W.Richard Stevens</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">网络编程卷二</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">精通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Unix shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">脚本编程</t>
+    </r>
+  </si>
+  <si>
+    <t>Randal K.</t>
+  </si>
+  <si>
+    <t>操作系统之哲学原理</t>
+  </si>
+  <si>
+    <t>邹恒明</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">编程实战</t>
+    </r>
+  </si>
+  <si>
+    <t>Peter Maclntyre</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">细说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">PHP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">兄弟连</t>
+    </r>
+  </si>
+  <si>
+    <t>吴伟</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">核心技术与最佳实践</t>
+    </r>
+  </si>
+  <si>
+    <t>陈文</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MySQL Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">开发</t>
+    </r>
+  </si>
+  <si>
+    <t>Luke Welling</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MySQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">程序设计</t>
+    </r>
+  </si>
+  <si>
+    <t>W.Jason Gilmore</t>
+  </si>
+  <si>
+    <t>曹平涛</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">进行数据分析</t>
+    </r>
+  </si>
+  <si>
+    <t>Wes McKinney</t>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hadoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">权威指南</t>
+    </r>
+  </si>
+  <si>
+    <t>Tom White</t>
+  </si>
+  <si>
+    <t>Jiawei Han</t>
+  </si>
+  <si>
+    <t>郑齐阳</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTML5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">实战</t>
+    </r>
+  </si>
+  <si>
+    <t>陶国荣</t>
+  </si>
+  <si>
+    <t>前端</t>
+  </si>
+  <si>
+    <t>黄可庆</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">前端黑客技术揭秘</t>
+    </r>
+  </si>
+  <si>
+    <t>钟晨鸣</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HTML5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CSS3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">权威指南</t>
+    </r>
+  </si>
+  <si>
+    <t>陆凌牛</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">高效开发实战</t>
+    </r>
+  </si>
+  <si>
+    <t>谢郁</t>
+  </si>
+  <si>
+    <t>陈浩</t>
+  </si>
+  <si>
+    <t>C++PrimerPlus</t>
+  </si>
+  <si>
+    <t>Stephen Prata</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">高效程序员的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个习惯——敏捷开发修炼之道</t>
+    </r>
+  </si>
+  <si>
+    <t>Venkat Subramaniam</t>
+  </si>
+  <si>
+    <t>思维锻炼</t>
+  </si>
+  <si>
+    <t>统计思维 程序员数学之概率统计</t>
+  </si>
+  <si>
+    <t>Allen B.Downey</t>
+  </si>
+  <si>
+    <t>研磨设计模式</t>
+  </si>
+  <si>
+    <t>陈臣</t>
+  </si>
+  <si>
+    <t>大设计</t>
+  </si>
+  <si>
+    <t>霍金</t>
+  </si>
+  <si>
+    <t>湖南科学技术</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">要素</t>
+    </r>
+  </si>
+  <si>
+    <t>Chris Slims</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scrum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">实战</t>
+    </r>
+  </si>
+  <si>
+    <t>Mitch Lacey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Javascript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">编程精解</t>
+    </r>
+  </si>
+  <si>
+    <t>Marijn Haverbeke</t>
+  </si>
+  <si>
+    <t>数据库系统概念</t>
+  </si>
+  <si>
+    <t>Abraham Silberschatz</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>数据库查询优化器</t>
+  </si>
+  <si>
+    <t>李海翔</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">教程</t>
+    </r>
+  </si>
+  <si>
+    <t>Syed Mansoor Sarwar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">编写可维护的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">javaScript</t>
+    </r>
+  </si>
+  <si>
+    <t>Nicholas C.Zakas</t>
+  </si>
+  <si>
+    <t>张旭</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">MVC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">javaScript Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">富应用开发</t>
+    </r>
+  </si>
+  <si>
+    <t>Alex MacCaw</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">给大家看的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">设计书</t>
+    </r>
+  </si>
+  <si>
+    <t>Robin Williams</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Compass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">实战</t>
+    </r>
+  </si>
+  <si>
+    <t>Wynn Netherland</t>
+  </si>
+  <si>
+    <t>黑客与画家</t>
+  </si>
+  <si>
+    <t>Paul Graham</t>
+  </si>
+  <si>
+    <t>杂项</t>
+  </si>
+  <si>
     <t> </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">常用算法手册</t>
-    </r>
-  </si>
-  <si>
-    <t>徐明远</t>
-  </si>
-  <si>
-    <t>中国铁道</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web3.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Semantic Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">编程</t>
-    </r>
-  </si>
-  <si>
-    <t>John Hebeler</t>
-  </si>
-  <si>
-    <t>清华大学</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">整合开发王者归来</t>
-    </r>
-  </si>
-  <si>
-    <t>刘京华</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">编程思想</t>
-    </r>
-  </si>
-  <si>
-    <t>Bruce Eckel</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">网络编程</t>
-    </r>
-  </si>
-  <si>
-    <t>Elliotte Rusty</t>
-  </si>
-  <si>
-    <t>中国电力</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HTML5WebSocket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">权威指南</t>
-    </r>
-  </si>
-  <si>
-    <t>Vanessa Wang</t>
-  </si>
-  <si>
-    <t>机械工程</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">小技术</t>
-    </r>
-  </si>
-  <si>
-    <t>谢俊杰</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">图解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">HTTP</t>
-    </r>
-  </si>
-  <si>
-    <t>上野宣</t>
-  </si>
-  <si>
-    <t>网站性能检测与优化</t>
-  </si>
-  <si>
-    <t>Alistair Croll</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">技术——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">到服务器端</t>
-    </r>
-  </si>
-  <si>
-    <t>小泉修</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>RESTfulWeb APIs</t>
-  </si>
-  <si>
-    <t>Leonard Richardson</t>
-  </si>
-  <si>
-    <t>Thinking in UML</t>
-  </si>
-  <si>
-    <t>谭云杰</t>
-  </si>
-  <si>
-    <t>中国水利水电</t>
-  </si>
-  <si>
-    <t>UML</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">UML</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">面向对象建模基础</t>
-    </r>
-  </si>
-  <si>
-    <t>徐峰</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">深入浅出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">JS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">编程</t>
-    </r>
-  </si>
-  <si>
-    <t>Eric Freeman</t>
-  </si>
-  <si>
-    <t>东南大学</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JQuery</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">技术内幕</t>
-    </r>
-  </si>
-  <si>
-    <t>高云</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">精通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Jquery</t>
-    </r>
-  </si>
-  <si>
-    <t>Adam Freeman</t>
-  </si>
-  <si>
-    <t>陈浩</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">权威指南</t>
-    </r>
-  </si>
-  <si>
-    <t>David Flanagan</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">单页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">应用</t>
-    </r>
-  </si>
-  <si>
-    <t>Michael S.</t>
-  </si>
-  <si>
-    <t>王雪莹</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">扩展及应用开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Chrome</t>
-    </r>
-  </si>
-  <si>
-    <t>李喆</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">JavaScript DOM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">编程艺术</t>
-    </r>
-  </si>
-  <si>
-    <t>Jeremy Keith</t>
-  </si>
-  <si>
-    <t>彭雅丽</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ruby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">基础教程</t>
-    </r>
-  </si>
-  <si>
-    <t>高桥征义</t>
-  </si>
-  <si>
-    <t>小众后端</t>
-  </si>
-  <si>
-    <t>刘昆</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">面向对象设计实践指南</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Ruby</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">语言描述</t>
-    </r>
-  </si>
-  <si>
-    <t>Sandi Metz</t>
-  </si>
-  <si>
-    <t>舒亚飞</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Go</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">语言程序设计</t>
-    </r>
-  </si>
-  <si>
-    <t>Mark Summerfield</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">深入浅出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">nodjs</t>
-    </r>
-  </si>
-  <si>
-    <t>朴灵</t>
-  </si>
-  <si>
-    <t>钟云昶</t>
-  </si>
-  <si>
-    <t>The Ruby Way</t>
-  </si>
-  <si>
-    <t>Hal Fulton</t>
-  </si>
-  <si>
-    <t>Ruby Cookbook</t>
-  </si>
-  <si>
-    <t>Lucas Carlson</t>
-  </si>
-  <si>
-    <t>Programming Ruby</t>
-  </si>
-  <si>
-    <t>Dave Thomas</t>
-  </si>
-  <si>
-    <t>只是为了好玩</t>
-  </si>
-  <si>
-    <t>Linus Torvalds</t>
-  </si>
-  <si>
-    <t>操作系统</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">理解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Unix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">进程</t>
-    </r>
-  </si>
-  <si>
-    <t>Jesse Storimer</t>
-  </si>
-  <si>
-    <t>舒亚菲</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">深入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Linux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">内核架构</t>
-    </r>
-  </si>
-  <si>
-    <t>Wolfgang Mauerer</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">网络编程卷一</t>
-    </r>
-  </si>
-  <si>
-    <t>W.Richard Stevens</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Unix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">网络编程卷二</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">精通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Unix shell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">脚本编程</t>
-    </r>
-  </si>
-  <si>
-    <t>Randal K.</t>
-  </si>
-  <si>
-    <t>操作系统之哲学原理</t>
-  </si>
-  <si>
-    <t>邹恒明</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">编程实战</t>
-    </r>
-  </si>
-  <si>
-    <t>Peter Maclntyre</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">细说</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">PHP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">LAMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">兄弟连</t>
-    </r>
-  </si>
-  <si>
-    <t>吴伟</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">核心技术与最佳实践</t>
-    </r>
-  </si>
-  <si>
-    <t>陈文</t>
-  </si>
-  <si>
-    <t>刘宏志</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">MySQL Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">开发</t>
-    </r>
-  </si>
-  <si>
-    <t>Luke Welling</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">MySQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">程序设计</t>
-    </r>
-  </si>
-  <si>
-    <t>W.Jason Gilmore</t>
-  </si>
-  <si>
-    <t>曹平涛</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">利用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Python</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">进行数据分析</t>
-    </r>
-  </si>
-  <si>
-    <t>Wes McKinney</t>
-  </si>
-  <si>
-    <t>数据挖掘</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hadoop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">权威指南</t>
-    </r>
-  </si>
-  <si>
-    <t>Tom White</t>
-  </si>
-  <si>
-    <t>Jiawei Han</t>
-  </si>
-  <si>
-    <t>郑齐阳</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HTML5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">实战</t>
-    </r>
-  </si>
-  <si>
-    <t>陶国荣</t>
-  </si>
-  <si>
-    <t>前端</t>
-  </si>
-  <si>
-    <t>黄可庆</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">前端黑客技术揭秘</t>
-    </r>
-  </si>
-  <si>
-    <t>钟晨鸣</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HTML5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">CSS3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">权威指南</t>
-    </r>
-  </si>
-  <si>
-    <t>陆凌牛</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">高效开发实战</t>
-    </r>
-  </si>
-  <si>
-    <t>谢郁</t>
-  </si>
-  <si>
-    <t>C++PrimerPlus</t>
-  </si>
-  <si>
-    <t>Stephen Prata</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">高效程序员的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">45</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">个习惯——敏捷开发修炼之道</t>
-    </r>
-  </si>
-  <si>
-    <t>Venkat Subramaniam</t>
-  </si>
-  <si>
-    <t>思维锻炼</t>
-  </si>
-  <si>
-    <t>统计思维 程序员数学之概率统计</t>
-  </si>
-  <si>
-    <t>Allen B.Downey</t>
-  </si>
-  <si>
-    <t>研磨设计模式</t>
-  </si>
-  <si>
-    <t>陈臣</t>
-  </si>
-  <si>
-    <t>大设计</t>
-  </si>
-  <si>
-    <t>霍金</t>
-  </si>
-  <si>
-    <t>湖南科学技术</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Scrum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">要素</t>
-    </r>
-  </si>
-  <si>
-    <t>Chris Slims</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Scrum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">实战</t>
-    </r>
-  </si>
-  <si>
-    <t>Mitch Lacey</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Javascript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">编程精解</t>
-    </r>
-  </si>
-  <si>
-    <t>Marijn Haverbeke</t>
-  </si>
-  <si>
-    <t>数据库系统概念</t>
-  </si>
-  <si>
-    <t>Abraham Silberschatz</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>数据库查询优化器</t>
-  </si>
-  <si>
-    <t>李海翔</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">教程</t>
-    </r>
-  </si>
-  <si>
-    <t>Syed Mansoor Sarwar</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">编写可维护的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">javaScript</t>
-    </r>
-  </si>
-  <si>
-    <t>Nicholas C.Zakas</t>
-  </si>
-  <si>
-    <t>张旭</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">基于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">MVC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">javaScript Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">富应用开发</t>
-    </r>
-  </si>
-  <si>
-    <t>Alex MacCaw</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">给大家看的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Web</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">设计书</t>
-    </r>
-  </si>
-  <si>
-    <t>Robin Williams</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sass</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Compass</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans Fallback"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">实战</t>
-    </r>
-  </si>
-  <si>
-    <t>Wynn Netherland</t>
-  </si>
-  <si>
-    <t>黑客与画家</t>
-  </si>
-  <si>
-    <t>Paul Graham</t>
-  </si>
-  <si>
-    <t>杂项</t>
-  </si>
-  <si>
-    <t>陈露耿</t>
-  </si>
-  <si>
-    <t>2014/10/12</t>
   </si>
   <si>
     <t>霍金传</t>
@@ -2555,11 +2549,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2598,8 +2592,8 @@
   </sheetPr>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I67" activeCellId="0" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2694,10 +2688,14 @@
         <v>79</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>74845</v>
+      </c>
       <c r="J3" s="14"/>
       <c r="K3" s="10"/>
     </row>
@@ -2705,11 +2703,11 @@
       <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>16</v>
+      <c r="B4" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>11</v>
@@ -2723,8 +2721,8 @@
       <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>18</v>
+      <c r="H4" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I4" s="9" t="n">
         <v>41970</v>
@@ -2736,11 +2734,11 @@
       <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>19</v>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>11</v>
@@ -2752,8 +2750,8 @@
       <c r="G5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>21</v>
+      <c r="H5" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="I5" s="9" t="n">
         <v>41925</v>
@@ -2766,31 +2764,27 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="14"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
@@ -2804,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="14" t="n">
         <v>59.8</v>
@@ -2831,7 +2825,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="14" t="n">
         <v>60</v>
@@ -2858,7 +2852,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="14" t="n">
         <v>99.8</v>
@@ -2866,7 +2860,7 @@
       <c r="G9" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="17"/>
       <c r="J9" s="14"/>
       <c r="K9" s="10"/>
@@ -2885,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="14" t="n">
         <v>108</v>
@@ -2912,7 +2906,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="14" t="n">
         <v>78</v>
@@ -2947,7 +2941,7 @@
       <c r="G12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="9" t="n">
@@ -2960,7 +2954,7 @@
       <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -2976,7 +2970,7 @@
       <c r="G13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="9" t="n">
@@ -2989,7 +2983,7 @@
       <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3050,7 +3044,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>43</v>
@@ -3124,7 +3118,7 @@
       <c r="A19" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -3172,11 +3166,11 @@
       <c r="J20" s="14"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -3194,16 +3188,16 @@
       <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>68</v>
       </c>
       <c r="I21" s="9" t="n">
-        <v>41969</v>
+        <v>74846</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
@@ -3228,11 +3222,11 @@
       <c r="J22" s="14"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3248,11 +3242,9 @@
         <v>69</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" s="15"/>
       <c r="I23" s="9" t="n">
         <v>41965</v>
       </c>
@@ -3263,11 +3255,11 @@
       <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>11</v>
@@ -3291,10 +3283,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>11</v>
@@ -3308,8 +3300,8 @@
       <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>78</v>
+      <c r="H25" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="I25" s="9" t="n">
         <v>41969</v>
@@ -3322,16 +3314,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="14" t="n">
         <v>79</v>
@@ -3339,8 +3331,8 @@
       <c r="G26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>82</v>
+      <c r="H26" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="I26" s="9" t="n">
         <v>41970</v>
@@ -3352,24 +3344,24 @@
       <c r="A27" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>85</v>
+      <c r="H27" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="I27" s="9" t="n">
         <v>41946</v>
@@ -3382,16 +3374,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="14" t="n">
         <v>69</v>
@@ -3408,17 +3400,17 @@
       <c r="A29" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="14" t="n">
         <v>69</v>
@@ -3426,8 +3418,8 @@
       <c r="G29" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="16" t="s">
-        <v>90</v>
+      <c r="H29" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="I29" s="9" t="n">
         <v>41963</v>
@@ -3440,16 +3432,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="14" t="n">
         <v>79</v>
@@ -3457,8 +3449,8 @@
       <c r="G30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>82</v>
+      <c r="H30" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="I30" s="9" t="n">
         <v>41970</v>
@@ -3471,16 +3463,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="14" t="n">
         <v>108</v>
@@ -3498,16 +3490,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D32" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="14" t="n">
         <v>99</v>
@@ -3524,17 +3516,17 @@
       <c r="A33" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" s="14" t="n">
         <v>49</v>
@@ -3542,7 +3534,7 @@
       <c r="G33" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>44</v>
       </c>
       <c r="I33" s="9" t="n">
@@ -3555,24 +3547,24 @@
       <c r="A34" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>102</v>
+      <c r="H34" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="I34" s="9" t="n">
         <v>41925</v>
@@ -3584,17 +3576,17 @@
       <c r="A35" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="14" t="n">
         <v>149</v>
@@ -3612,16 +3604,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="14" t="n">
         <v>129</v>
@@ -3639,16 +3631,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="14" t="n">
         <v>89</v>
@@ -3665,17 +3657,17 @@
       <c r="A38" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" s="14" t="n">
         <v>118</v>
@@ -3692,17 +3684,17 @@
       <c r="A39" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" s="14" t="n">
         <v>38</v>
@@ -3720,23 +3712,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>90</v>
+      <c r="H40" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="I40" s="9" t="n">
         <v>41925</v>
@@ -3748,24 +3740,24 @@
       <c r="A41" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D41" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>117</v>
+      <c r="H41" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="I41" s="9" t="n">
         <v>41923</v>
@@ -3773,50 +3765,46 @@
       <c r="J41" s="14"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I42" s="9" t="n">
-        <v>41946</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="9"/>
       <c r="J42" s="14"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="6" t="n">
@@ -3832,23 +3820,23 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H44" s="16" t="s">
-        <v>125</v>
+      <c r="H44" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="I44" s="9" t="n">
         <v>41923</v>
@@ -3860,17 +3848,17 @@
       <c r="A45" s="11" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>126</v>
+      <c r="B45" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F45" s="14" t="n">
         <v>89</v>
@@ -3888,16 +3876,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F46" s="14" t="n">
         <v>79</v>
@@ -3914,24 +3902,24 @@
       <c r="A47" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>128</v>
+      <c r="B47" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>132</v>
+      <c r="H47" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="I47" s="9" t="n">
         <v>41926</v>
@@ -3944,23 +3932,23 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H48" s="16" t="s">
-        <v>136</v>
+      <c r="H48" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="I48" s="9" t="n">
         <v>41933</v>
@@ -3973,23 +3961,23 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H49" s="16" t="s">
-        <v>117</v>
+      <c r="H49" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="I49" s="9" t="n">
         <v>41923</v>
@@ -3997,21 +3985,21 @@
       <c r="J49" s="14"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F50" s="14" t="n">
         <v>69</v>
@@ -4019,35 +4007,39 @@
       <c r="G50" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H50" s="16"/>
+      <c r="H50" s="15"/>
       <c r="I50" s="17"/>
       <c r="J50" s="14"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>59</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" s="9" t="n">
+        <v>74849</v>
+      </c>
       <c r="J51" s="14"/>
       <c r="K51" s="10"/>
     </row>
@@ -4056,16 +4048,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>72</v>
@@ -4082,17 +4074,17 @@
       <c r="A53" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F53" s="14" t="n">
         <v>35</v>
@@ -4100,8 +4092,8 @@
       <c r="G53" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>18</v>
+      <c r="H53" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I53" s="9" t="n">
         <v>41970</v>
@@ -4113,17 +4105,17 @@
       <c r="A54" s="11" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F54" s="14" t="n">
         <v>29</v>
@@ -4140,17 +4132,17 @@
       <c r="A55" s="11" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F55" s="14" t="n">
         <v>89</v>
@@ -4167,17 +4159,17 @@
       <c r="A56" s="11" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="13" t="s">
-        <v>155</v>
-      </c>
       <c r="E56" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F56" s="14" t="n">
         <v>48</v>
@@ -4195,16 +4187,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F57" s="14" t="n">
         <v>29</v>
@@ -4212,8 +4204,8 @@
       <c r="G57" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>90</v>
+      <c r="H57" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="I57" s="9" t="n">
         <v>41966</v>
@@ -4226,16 +4218,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F58" s="14" t="n">
         <v>79</v>
@@ -4253,10 +4245,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>15</v>
@@ -4270,7 +4262,7 @@
       <c r="G59" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>44</v>
       </c>
       <c r="I59" s="9" t="n">
@@ -4283,17 +4275,17 @@
       <c r="A60" s="11" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F60" s="14" t="n">
         <v>99</v>
@@ -4310,17 +4302,17 @@
       <c r="A61" s="11" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>166</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F61" s="14" t="n">
         <v>89</v>
@@ -4333,32 +4325,28 @@
       <c r="J61" s="14"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I62" s="9" t="n">
-        <v>41923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="9"/>
       <c r="J62" s="14"/>
       <c r="K62" s="10"/>
     </row>
@@ -4366,11 +4354,11 @@
       <c r="A63" s="11" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>11</v>
@@ -4384,8 +4372,8 @@
       <c r="G63" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H63" s="16" t="s">
-        <v>171</v>
+      <c r="H63" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="I63" s="9" t="n">
         <v>41967</v>
@@ -4397,14 +4385,14 @@
       <c r="A64" s="11" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="D64" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>63</v>
@@ -4424,11 +4412,11 @@
       <c r="A65" s="11" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>11</v>
@@ -4452,10 +4440,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>11</v>
@@ -4474,31 +4462,31 @@
       <c r="J66" s="14"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>181</v>
+        <v>0</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J67" s="14"/>
       <c r="K67" s="10"/>
@@ -4507,17 +4495,17 @@
       <c r="A68" s="11" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>183</v>
+      <c r="B68" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F68" s="14" t="n">
         <v>25</v>
@@ -4534,24 +4522,24 @@
       <c r="A69" s="11" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>185</v>
+      <c r="B69" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H69" s="16" t="s">
-        <v>18</v>
+      <c r="H69" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I69" s="9" t="n">
         <v>41958</v>
@@ -4563,17 +4551,17 @@
       <c r="A70" s="11" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>189</v>
-      </c>
       <c r="E70" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F70" s="14" t="n">
         <v>39</v>
@@ -4590,17 +4578,17 @@
       <c r="A71" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>190</v>
+      <c r="B71" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F71" s="14" t="n">
         <v>32</v>
@@ -4617,17 +4605,17 @@
       <c r="A72" s="11" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="E72" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F72" s="14" t="n">
         <v>29.8</v>
@@ -4644,17 +4632,17 @@
       <c r="A73" s="11" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C73" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="E73" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" s="14" t="n">
         <v>48</v>
@@ -4671,17 +4659,17 @@
       <c r="A74" s="11" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>200</v>
-      </c>
       <c r="E74" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" s="14"/>
       <c r="G74" s="6" t="n">
@@ -4696,17 +4684,17 @@
       <c r="A75" s="11" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>201</v>
+      <c r="B75" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F75" s="14" t="n">
         <v>39</v>
@@ -4714,8 +4702,8 @@
       <c r="G75" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H75" s="16" t="s">
-        <v>18</v>
+      <c r="H75" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I75" s="9" t="n">
         <v>41958</v>
@@ -4727,17 +4715,17 @@
       <c r="A76" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>205</v>
-      </c>
       <c r="E76" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F76" s="14" t="n">
         <v>19.8</v>
@@ -4754,17 +4742,17 @@
       <c r="A77" s="11" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D77" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>208</v>
-      </c>
       <c r="E77" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F77" s="14" t="n">
         <v>29.9</v>
@@ -4781,17 +4769,17 @@
       <c r="A78" s="11" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>209</v>
+      <c r="B78" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" s="14" t="n">
         <v>42</v>
@@ -4809,16 +4797,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F79" s="14" t="n">
         <v>69</v>
@@ -4835,17 +4823,17 @@
       <c r="A80" s="11" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>213</v>
+      <c r="B80" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F80" s="14" t="n">
         <v>36</v>
@@ -4862,17 +4850,17 @@
       <c r="A81" s="11" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>215</v>
+      <c r="B81" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F81" s="14" t="n">
         <v>45</v>
@@ -4889,17 +4877,17 @@
       <c r="A82" s="11" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>217</v>
+      <c r="B82" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F82" s="14" t="n">
         <v>28</v>
@@ -4916,17 +4904,17 @@
       <c r="A83" s="11" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>219</v>
+      <c r="B83" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F83" s="14" t="n">
         <v>28</v>
@@ -4943,17 +4931,17 @@
       <c r="A84" s="11" t="n">
         <v>83</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>221</v>
+      <c r="B84" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F84" s="14" t="n">
         <v>38</v>
@@ -4970,17 +4958,17 @@
       <c r="A85" s="11" t="n">
         <v>84</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>223</v>
+      <c r="B85" s="16" t="s">
+        <v>221</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F85" s="14" t="n">
         <v>20</v>
@@ -4997,17 +4985,17 @@
       <c r="A86" s="11" t="n">
         <v>85</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>225</v>
+      <c r="B86" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F86" s="14" t="n">
         <v>35</v>
@@ -5024,17 +5012,17 @@
       <c r="A87" s="11" t="n">
         <v>86</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>227</v>
+      <c r="B87" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F87" s="14" t="n">
         <v>29</v>
@@ -5051,17 +5039,17 @@
       <c r="A88" s="11" t="n">
         <v>87</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>229</v>
+      <c r="B88" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F88" s="14" t="n">
         <v>49</v>
@@ -5079,16 +5067,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F89" s="14" t="n">
         <v>69</v>
@@ -5096,8 +5084,8 @@
       <c r="G89" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H89" s="16" t="s">
-        <v>90</v>
+      <c r="H89" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="I89" s="9" t="n">
         <v>41966</v>
@@ -5109,17 +5097,17 @@
       <c r="A90" s="11" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>234</v>
+      <c r="B90" s="16" t="s">
+        <v>232</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F90" s="14" t="n">
         <v>29</v>
@@ -5136,17 +5124,17 @@
       <c r="A91" s="11" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>236</v>
+      <c r="B91" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F91" s="14" t="n">
         <v>45</v>
@@ -5163,17 +5151,17 @@
       <c r="A92" s="11" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>238</v>
+      <c r="B92" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F92" s="14" t="n">
         <v>45</v>
@@ -5181,8 +5169,8 @@
       <c r="G92" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>18</v>
+      <c r="H92" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I92" s="9" t="n">
         <v>41970</v>
@@ -5194,17 +5182,17 @@
       <c r="A93" s="11" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>239</v>
+      <c r="B93" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F93" s="14" t="n">
         <v>45</v>
@@ -5212,8 +5200,8 @@
       <c r="G93" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H93" s="8" t="s">
-        <v>78</v>
+      <c r="H93" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="I93" s="9" t="n">
         <v>41970</v>
@@ -5225,17 +5213,17 @@
       <c r="A94" s="11" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>242</v>
-      </c>
       <c r="E94" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F94" s="14" t="n">
         <v>78</v>
@@ -5252,17 +5240,17 @@
       <c r="A95" s="11" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>243</v>
+      <c r="B95" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F95" s="14" t="n">
         <v>59</v>
@@ -5279,17 +5267,17 @@
       <c r="A96" s="11" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>245</v>
+      <c r="B96" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F96" s="14" t="n">
         <v>218</v>
@@ -5306,17 +5294,17 @@
       <c r="A97" s="11" t="n">
         <v>96</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>247</v>
+      <c r="B97" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F97" s="14" t="n">
         <v>45</v>
@@ -5334,23 +5322,23 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H98" s="16" t="s">
-        <v>251</v>
+      <c r="H98" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="I98" s="9" t="n">
         <v>41933</v>
@@ -5363,16 +5351,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F99" s="14" t="n">
         <v>59</v>
@@ -5390,49 +5378,53 @@
         <v>99</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F100" s="14" t="n">
         <v>49</v>
       </c>
       <c r="G100" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="H100" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I100" s="9" t="n">
+        <v>41974</v>
+      </c>
       <c r="J100" s="14"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D101" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H101" s="16"/>
+      <c r="H101" s="15"/>
       <c r="I101" s="17"/>
       <c r="J101" s="14"/>
       <c r="K101" s="10"/>
@@ -5442,16 +5434,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D102" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F102" s="14" t="n">
         <v>42</v>
@@ -5469,16 +5461,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F103" s="14" t="n">
         <v>27</v>
@@ -5496,23 +5488,23 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H104" s="16" t="s">
-        <v>171</v>
+      <c r="H104" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="I104" s="9" t="n">
         <v>41963</v>
@@ -5525,16 +5517,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F105" s="14" t="n">
         <v>45</v>
@@ -5552,16 +5544,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F106" s="14" t="n">
         <v>79</v>
@@ -5579,10 +5571,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D107" s="13" t="s">
         <v>11</v>
@@ -5596,7 +5588,7 @@
       <c r="G107" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H107" s="16"/>
+      <c r="H107" s="15"/>
       <c r="I107" s="17"/>
       <c r="J107" s="14"/>
       <c r="K107" s="10"/>
@@ -5606,16 +5598,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F108" s="14" t="n">
         <v>55</v>
@@ -5633,16 +5625,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D109" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F109" s="14" t="n">
         <v>44.5</v>
@@ -5660,16 +5652,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D110" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F110" s="14" t="n">
         <v>59</v>
@@ -5687,10 +5679,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D111" s="13" t="s">
         <v>11</v>
@@ -5714,16 +5706,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F112" s="14" t="n">
         <v>69</v>
@@ -5741,16 +5733,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D113" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F113" s="14" t="n">
         <v>99</v>
@@ -5768,16 +5760,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F114" s="14" t="n">
         <v>68</v>
@@ -5785,8 +5777,8 @@
       <c r="G114" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="H114" s="16" t="s">
-        <v>171</v>
+      <c r="H114" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="I114" s="9" t="n">
         <v>41963</v>
@@ -5799,16 +5791,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D115" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F115" s="14" t="n">
         <v>59</v>
@@ -5826,16 +5818,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D116" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F116" s="14" t="n">
         <v>22</v>
@@ -5853,16 +5845,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F117" s="14" t="n">
         <v>50</v>
@@ -5878,16 +5870,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F118" s="14" t="n">
         <v>128</v>
@@ -5903,16 +5895,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F119" s="14" t="n">
         <v>49</v>
@@ -5928,16 +5920,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F120" s="14" t="n">
         <v>59</v>
@@ -5953,16 +5945,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F121" s="14" t="n">
         <v>108</v>
@@ -5971,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I121" s="20" t="n">
         <v>41970</v>
@@ -5982,16 +5974,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F122" s="14" t="n">
         <v>29.8</v>
@@ -6005,16 +5997,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F123" s="14" t="n">
         <v>49</v>
@@ -6028,16 +6020,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F124" s="14" t="n">
         <v>59</v>
@@ -6051,16 +6043,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F125" s="14" t="n">
         <v>49</v>
@@ -6074,16 +6066,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F126" s="14" t="n">
         <v>19</v>
@@ -6097,16 +6089,16 @@
         <v>127</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F127" s="14" t="n">
         <v>29</v>
